--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H2">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I2">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J2">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.15579672764035</v>
+        <v>0.05194133333333333</v>
       </c>
       <c r="N2">
-        <v>1.15579672764035</v>
+        <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03788844568234288</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03788844568234288</v>
       </c>
       <c r="Q2">
-        <v>213.4676774094647</v>
+        <v>10.335141642288</v>
       </c>
       <c r="R2">
-        <v>213.4676774094647</v>
+        <v>93.01627478059198</v>
       </c>
       <c r="S2">
-        <v>0.4666431855336483</v>
+        <v>0.01670089914498832</v>
       </c>
       <c r="T2">
-        <v>0.4666431855336483</v>
+        <v>0.01670089914498832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.763767480216</v>
+        <v>198.977211</v>
       </c>
       <c r="H3">
-        <v>195.763767480216</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I3">
-        <v>0.4946141974629212</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J3">
-        <v>0.4946141974629212</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.15579672764035</v>
+        <v>1.318960333333333</v>
       </c>
       <c r="N3">
-        <v>1.15579672764035</v>
+        <v>3.956881</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.962111554317657</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9621115543176572</v>
       </c>
       <c r="Q3">
-        <v>226.26312184418</v>
+        <v>262.443048546297</v>
       </c>
       <c r="R3">
-        <v>226.26312184418</v>
+        <v>2361.987436916673</v>
       </c>
       <c r="S3">
-        <v>0.4946141974629212</v>
+        <v>0.4240904514690967</v>
       </c>
       <c r="T3">
-        <v>0.4946141974629212</v>
+        <v>0.4240904514690968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>196.7746736666667</v>
+      </c>
+      <c r="H4">
+        <v>590.324021</v>
+      </c>
+      <c r="I4">
+        <v>0.4359121013721307</v>
+      </c>
+      <c r="J4">
+        <v>0.4359121013721308</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05194133333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.155824</v>
+      </c>
+      <c r="O4">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="P4">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="Q4">
+        <v>10.22073891647822</v>
+      </c>
+      <c r="R4">
+        <v>91.986650248304</v>
+      </c>
+      <c r="S4">
+        <v>0.01651603197511392</v>
+      </c>
+      <c r="T4">
+        <v>0.01651603197511392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>196.7746736666667</v>
+      </c>
+      <c r="H5">
+        <v>590.324021</v>
+      </c>
+      <c r="I5">
+        <v>0.4359121013721307</v>
+      </c>
+      <c r="J5">
+        <v>0.4359121013721308</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.318960333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.956881</v>
+      </c>
+      <c r="O5">
+        <v>0.962111554317657</v>
+      </c>
+      <c r="P5">
+        <v>0.9621115543176572</v>
+      </c>
+      <c r="Q5">
+        <v>259.5379891709446</v>
+      </c>
+      <c r="R5">
+        <v>2335.841902538501</v>
+      </c>
+      <c r="S5">
+        <v>0.4193960693970167</v>
+      </c>
+      <c r="T5">
+        <v>0.4193960693970168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.158424</v>
+      </c>
+      <c r="H6">
+        <v>0.475272</v>
+      </c>
+      <c r="I6">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J6">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05194133333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.155824</v>
+      </c>
+      <c r="O6">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="P6">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="Q6">
+        <v>0.008228753792</v>
+      </c>
+      <c r="R6">
+        <v>0.074058784128</v>
+      </c>
+      <c r="S6">
+        <v>1.329711695549713E-05</v>
+      </c>
+      <c r="T6">
+        <v>1.329711695549713E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.158424</v>
+      </c>
+      <c r="H7">
+        <v>0.475272</v>
+      </c>
+      <c r="I7">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J7">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.318960333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.956881</v>
+      </c>
+      <c r="O7">
+        <v>0.962111554317657</v>
+      </c>
+      <c r="P7">
+        <v>0.9621115543176572</v>
+      </c>
+      <c r="Q7">
+        <v>0.208954971848</v>
+      </c>
+      <c r="R7">
+        <v>1.880594746632</v>
+      </c>
+      <c r="S7">
+        <v>0.0003376572892236397</v>
+      </c>
+      <c r="T7">
+        <v>0.0003376572892236398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="H4">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="I4">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="J4">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.15579672764035</v>
-      </c>
-      <c r="N4">
-        <v>1.15579672764035</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>17.72295562192539</v>
-      </c>
-      <c r="R4">
-        <v>17.72295562192539</v>
-      </c>
-      <c r="S4">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="T4">
-        <v>0.0387426170034305</v>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H8">
+        <v>166.496266</v>
+      </c>
+      <c r="I8">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J8">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05194133333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.155824</v>
+      </c>
+      <c r="O8">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="P8">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="Q8">
+        <v>2.882679350353778</v>
+      </c>
+      <c r="R8">
+        <v>25.944114153184</v>
+      </c>
+      <c r="S8">
+        <v>0.004658217445285143</v>
+      </c>
+      <c r="T8">
+        <v>0.004658217445285143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H9">
+        <v>166.496266</v>
+      </c>
+      <c r="I9">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J9">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.318960333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.956881</v>
+      </c>
+      <c r="O9">
+        <v>0.962111554317657</v>
+      </c>
+      <c r="P9">
+        <v>0.9621115543176572</v>
+      </c>
+      <c r="Q9">
+        <v>73.20065683403845</v>
+      </c>
+      <c r="R9">
+        <v>658.8059115063461</v>
+      </c>
+      <c r="S9">
+        <v>0.1182873761623198</v>
+      </c>
+      <c r="T9">
+        <v>0.1182873761623198</v>
       </c>
     </row>
   </sheetData>
